--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/10/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.23740000000002</v>
+        <v>-22.17500000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.99899999999998</v>
+        <v>-20.02119999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.22219999999998</v>
+        <v>-20.29019999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -774,12 +774,12 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.6142</v>
+        <v>-7.6189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.8814</v>
+        <v>-21.75</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.052299999999997</v>
+        <v>-7.999199999999997</v>
       </c>
     </row>
     <row r="29">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.1937</v>
+        <v>-7.0905</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.100599999999998</v>
+        <v>-7.101900000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.340399999999988</v>
+        <v>-7.447799999999993</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.0404</v>
+        <v>-8.041700000000004</v>
       </c>
     </row>
     <row r="50">
@@ -1166,12 +1166,12 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.919400000000005</v>
+        <v>-7.837600000000004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.9768</v>
+        <v>-22.1156</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1180,7 +1180,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.874399999999997</v>
+        <v>-8.171799999999998</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.042900000000005</v>
+        <v>-8.105600000000003</v>
       </c>
     </row>
     <row r="55">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.59520000000001</v>
+        <v>-22.58570000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.03979999999999</v>
+        <v>-22.14489999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.5705</v>
+        <v>-21.56359999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.703199999999998</v>
+        <v>-6.622499999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.063</v>
+        <v>-19.88489999999999</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.84420000000001</v>
+        <v>-21.79340000000001</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.773600000000002</v>
+        <v>-8.748400000000006</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.420799999999991</v>
+        <v>-8.422499999999992</v>
       </c>
     </row>
     <row r="88">
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.47370000000001</v>
+        <v>-21.51320000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.970000000000002</v>
+        <v>-7.910700000000002</v>
       </c>
     </row>
     <row r="102">
